--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A269C3C-346B-4974-A78B-E0AA58C7B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304E078-1487-4131-9AD9-0EEC9E82BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>Architect 2001 Bt.</t>
   </si>
   <si>
-    <t>columns</t>
-  </si>
-  <si>
     <t>magyarázat: ebben a táblában tároljuk a header szövegeket, azaz oszlop azonosítókat</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>egy tervezőhöz több header csoport is tartozhat, ezt jelöli a subset_id</t>
+  </si>
+  <si>
+    <t>headers</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -993,16 +993,16 @@
         <v>37</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304E078-1487-4131-9AD9-0EEC9E82BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1891F09-29BE-4E1A-86E2-16273ACECC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -563,11 +563,11 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -584,8 +584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9629775" y="1581150"/>
-          <a:ext cx="1828800" cy="1952625"/>
+          <a:off x="9629775" y="1628775"/>
+          <a:ext cx="2352675" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\strabag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1891F09-29BE-4E1A-86E2-16273ACECC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4F208-8B01-42E5-BEC0-0907E7C83B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -174,9 +174,6 @@
     <t>magyarázat: ebben a táblában tároljuk a header szövegeket, azaz oszlop azonosítókat</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>headers</t>
+  </si>
+  <si>
+    <t>header_row</t>
+  </si>
+  <si>
+    <t>architects</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +931,9 @@
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -955,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>45</v>
@@ -993,16 +998,19 @@
         <v>37</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1040,7 +1048,10 @@
       <c r="P7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1063,7 +1074,8 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
@@ -1078,7 +1090,8 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
@@ -1093,7 +1106,8 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
@@ -1108,7 +1122,8 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
@@ -1123,7 +1138,8 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L13" s="1" t="s">
@@ -1135,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4F208-8B01-42E5-BEC0-0907E7C83B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54BD10C-D733-4173-9E15-F8A68EC01969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>architects</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>modified_date</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -917,7 +932,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +946,10 @@
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1167,12 +1185,18 @@
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="N17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
@@ -1187,8 +1211,17 @@
       <c r="L18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="22" t="s">
         <v>43</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1204,9 +1237,12 @@
       <c r="L19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="22" t="s">
         <v>44</v>
       </c>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H20" s="9" t="s">
@@ -1219,28 +1255,40 @@
         <v>12</v>
       </c>
       <c r="L20" s="20"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H21" s="9"/>
       <c r="I21" s="14"/>
       <c r="J21" s="7"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H22" s="9"/>
       <c r="I22" s="14"/>
       <c r="J22" s="7"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="11"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L24" s="1" t="s">

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54BD10C-D733-4173-9E15-F8A68EC01969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4CAC4-30DB-4E49-92A9-06B3FE3C5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -578,13 +578,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -929,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,47 +944,50 @@
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1003,35 +1006,41 @@
       <c r="I6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="14" t="s">
         <v>3</v>
@@ -1048,32 +1057,34 @@
       <c r="I7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="O7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="Q7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1084,218 +1095,246 @@
       <c r="I8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="8"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
       <c r="H12" s="11"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="12"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="1" t="s">
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="L18" s="20" t="s">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="7"/>
+      <c r="N18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="O18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="P18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="Q18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="7"/>
+      <c r="N19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="O19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H21" s="9"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="7"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="7"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H22" s="9"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="7"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="7"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="11"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="10"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="10"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="1" t="s">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>18</v>
@@ -1325,8 +1364,10 @@
         <v>26</v>
       </c>
       <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1354,18 +1395,20 @@
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>29</v>
       </c>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4CAC4-30DB-4E49-92A9-06B3FE3C5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E075F-C3AA-48E9-9F7C-B62C93A1316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
+    <sheet name="MS SQL táblák" sheetId="3" r:id="rId2"/>
+    <sheet name="Token label" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -81,9 +83,6 @@
     <t>token_labels</t>
   </si>
   <si>
-    <t>list of ids</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -135,9 +134,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -205,13 +201,280 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>pandas_project</t>
+  </si>
+  <si>
+    <t>architect_id</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>pandas_file</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>100NVARCHAR</t>
+  </si>
+  <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>file_data</t>
+  </si>
+  <si>
+    <t>pandas_result</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>result_name</t>
+  </si>
+  <si>
+    <t>worksheet neve</t>
+  </si>
+  <si>
+    <t>NVARCHAR100</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>result_count</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>excelben hány sort kell kategorizálni</t>
+  </si>
+  <si>
+    <t>result_finish</t>
+  </si>
+  <si>
+    <t>hány db lett már bekategorizálva</t>
+  </si>
+  <si>
+    <t>result_table</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>{"row_id":0, "main_cat_id": 1, "sub_cat_id": 2}</t>
+  </si>
+  <si>
+    <t>[[1,2]]</t>
+  </si>
+  <si>
+    <t>pandas_column</t>
+  </si>
+  <si>
+    <t>result_id</t>
+  </si>
+  <si>
+    <t>most még user_id</t>
+  </si>
+  <si>
+    <t>content_value</t>
+  </si>
+  <si>
+    <t>content_text</t>
+  </si>
+  <si>
+    <t>melyik oszlop a tartalom</t>
+  </si>
+  <si>
+    <t>tartalom oszlop elnevezése eredeti táblában</t>
+  </si>
+  <si>
+    <t>quantity_value</t>
+  </si>
+  <si>
+    <t>quantity_text</t>
+  </si>
+  <si>
+    <t>melyik oszlop a mennyiség</t>
+  </si>
+  <si>
+    <t>mennyiség oszlop elnevezése az eredeti táblában</t>
+  </si>
+  <si>
+    <t>unit_value</t>
+  </si>
+  <si>
+    <t>mértékegység</t>
+  </si>
+  <si>
+    <t>unit_text</t>
+  </si>
+  <si>
+    <t>material_value</t>
+  </si>
+  <si>
+    <t>material_text</t>
+  </si>
+  <si>
+    <t>wage_value</t>
+  </si>
+  <si>
+    <t>wage_text</t>
+  </si>
+  <si>
+    <t>sum_value</t>
+  </si>
+  <si>
+    <t>sum_text</t>
+  </si>
+  <si>
+    <t>column_row</t>
+  </si>
+  <si>
+    <t>melyik sorban vannak az oszlop elnevezések</t>
+  </si>
+  <si>
+    <t>az egész sor el van mentve</t>
+  </si>
+  <si>
+    <t>pandas_category</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>1 főkategória</t>
+  </si>
+  <si>
+    <t>2 alkategória</t>
+  </si>
+  <si>
+    <t>3 tartalom</t>
+  </si>
+  <si>
+    <t>main_cat_id</t>
+  </si>
+  <si>
+    <t>sub_cat_id</t>
+  </si>
+  <si>
+    <t>cont_cat_id</t>
+  </si>
+  <si>
+    <t>cat_name</t>
+  </si>
+  <si>
+    <t>NVARCHARMAX</t>
+  </si>
+  <si>
+    <t>category_order</t>
+  </si>
+  <si>
+    <t>sentence_label_id</t>
+  </si>
+  <si>
+    <t>ide mentjük el a kategorizált tartalmakat, azaz content category a DB-ben</t>
+  </si>
+  <si>
+    <t>kategóriákat tároljuk</t>
+  </si>
+  <si>
+    <t>nincs result_id, mert a Merkbaun belül egységes, hogy milyen kategóriák vannak, tehát nem különböznek a kategóriák excel munkalaponként</t>
+  </si>
+  <si>
+    <t>nincs user_id, mert egységesek a kategóriák a Merkbaun belül, tehát minden user ugyanazokat a kategóriákat használja</t>
+  </si>
+  <si>
+    <t>1: fő</t>
+  </si>
+  <si>
+    <t>2: alkategória</t>
+  </si>
+  <si>
+    <t>korábban: categoryName helyett van a category oszlop</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>expire_at</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>pandas_result_id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>pandas_column_id</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>kék szín</t>
+  </si>
+  <si>
+    <t>a MS SQL DB-ből vettük át ezeket az oszlopokat</t>
+  </si>
+  <si>
+    <t>sárga szín</t>
+  </si>
+  <si>
+    <t>színmagyarázat:</t>
+  </si>
+  <si>
+    <t>character varying</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>bytea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +513,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +545,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -368,17 +712,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,6 +736,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -420,15 +792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>472109</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,8 +815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2590800" y="1409700"/>
-          <a:ext cx="3000375" cy="161926"/>
+          <a:off x="2592457" y="1417155"/>
+          <a:ext cx="4213777" cy="2310019"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -472,16 +844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>306459</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -495,9 +867,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3648075" y="1609725"/>
-          <a:ext cx="2228850" cy="2133600"/>
+        <a:xfrm flipH="1">
+          <a:off x="919372" y="3710609"/>
+          <a:ext cx="2907193" cy="3884543"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -525,16 +897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90281</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -548,9 +920,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5886450" y="1371600"/>
-          <a:ext cx="2419350" cy="2533650"/>
+        <a:xfrm flipV="1">
+          <a:off x="2966416" y="1628776"/>
+          <a:ext cx="4682159" cy="6357730"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -580,14 +952,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -601,9 +973,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9629775" y="1628775"/>
-          <a:ext cx="2352675" cy="1905000"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11391900" y="3533775"/>
+          <a:ext cx="2943225" cy="2371725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -929,493 +1301,1354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
+      <c r="I5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>34</v>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="K6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="7"/>
+      <c r="T7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8"/>
-      <c r="N7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="8"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="8"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="8"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="8"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="12"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="N17" s="3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="46" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H18" s="9" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="7"/>
+      <c r="N19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="7"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="7"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="7"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="9"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N30" s="18"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="N33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="19"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="7"/>
-      <c r="N18" s="20" t="s">
+      <c r="D38" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="C39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="N39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD39" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="R40" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="19"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="7" t="s">
+    </row>
+    <row r="48" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="7"/>
-      <c r="N19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="7"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H21" s="9"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="7"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H22" s="9"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="7"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="11"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="10"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="E48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="19"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="18"/>
+      <c r="C64" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="18"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="18"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="18"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="18"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="18"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="19"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="19"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4175EF13-5D1A-4EA9-AC71-3AF5FC08D2BC}">
+  <dimension ref="A3:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866A74D-9184-4514-A20E-8BA402B45125}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E075F-C3AA-48E9-9F7C-B62C93A1316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA4A34-4F6C-46AA-B8AB-CBB7CC3EBCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="9165" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA4A34-4F6C-46AA-B8AB-CBB7CC3EBCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034FD30-73EA-4468-9055-E574CF0975CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>bytea</t>
+  </si>
+  <si>
+    <t>MS SQL</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -770,6 +779,7 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1303,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,8 +2094,11 @@
     </row>
     <row r="45" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="50" t="s">
         <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2144,8 +2157,11 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="50" t="s">
         <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2327,10 +2343,12 @@
     </row>
     <row r="71" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034FD30-73EA-4468-9055-E574CF0975CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1CE689-A34A-4C37-AEF2-8342E60CCF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -62,9 +62,6 @@
     <t>földmunka</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>alapozás</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>category_id</t>
   </si>
   <si>
@@ -185,90 +179,42 @@
     <t>header_row</t>
   </si>
   <si>
-    <t>architects</t>
-  </si>
-  <si>
     <t>created_date</t>
   </si>
   <si>
     <t>modified_date</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>pandas_project</t>
-  </si>
-  <si>
     <t>architect_id</t>
   </si>
   <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>pandas_file</t>
-  </si>
-  <si>
-    <t>project_id</t>
-  </si>
-  <si>
     <t>100NVARCHAR</t>
   </si>
   <si>
-    <t>file_size</t>
-  </si>
-  <si>
     <t>bigint</t>
   </si>
   <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>file_data</t>
-  </si>
-  <si>
-    <t>pandas_result</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
-    <t>result_name</t>
-  </si>
-  <si>
     <t>worksheet neve</t>
   </si>
   <si>
     <t>NVARCHAR100</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>result_count</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>excelben hány sort kell kategorizálni</t>
   </si>
   <si>
-    <t>result_finish</t>
-  </si>
-  <si>
     <t>hány db lett már bekategorizálva</t>
   </si>
   <si>
-    <t>result_table</t>
-  </si>
-  <si>
     <t>JSON</t>
   </si>
   <si>
@@ -278,69 +224,27 @@
     <t>[[1,2]]</t>
   </si>
   <si>
-    <t>pandas_column</t>
-  </si>
-  <si>
     <t>result_id</t>
   </si>
   <si>
     <t>most még user_id</t>
   </si>
   <si>
-    <t>content_value</t>
-  </si>
-  <si>
-    <t>content_text</t>
-  </si>
-  <si>
     <t>melyik oszlop a tartalom</t>
   </si>
   <si>
     <t>tartalom oszlop elnevezése eredeti táblában</t>
   </si>
   <si>
-    <t>quantity_value</t>
-  </si>
-  <si>
-    <t>quantity_text</t>
-  </si>
-  <si>
     <t>melyik oszlop a mennyiség</t>
   </si>
   <si>
     <t>mennyiség oszlop elnevezése az eredeti táblában</t>
   </si>
   <si>
-    <t>unit_value</t>
-  </si>
-  <si>
     <t>mértékegység</t>
   </si>
   <si>
-    <t>unit_text</t>
-  </si>
-  <si>
-    <t>material_value</t>
-  </si>
-  <si>
-    <t>material_text</t>
-  </si>
-  <si>
-    <t>wage_value</t>
-  </si>
-  <si>
-    <t>wage_text</t>
-  </si>
-  <si>
-    <t>sum_value</t>
-  </si>
-  <si>
-    <t>sum_text</t>
-  </si>
-  <si>
-    <t>column_row</t>
-  </si>
-  <si>
     <t>melyik sorban vannak az oszlop elnevezések</t>
   </si>
   <si>
@@ -404,24 +308,6 @@
     <t>korábban: categoryName helyett van a category oszlop</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>expire_at</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -431,18 +317,6 @@
     <t>user id</t>
   </si>
   <si>
-    <t>pandas_result_id</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>pandas_column_id</t>
-  </si>
-  <si>
     <t>foreign key</t>
   </si>
   <si>
@@ -470,7 +344,169 @@
     <t>bytea</t>
   </si>
   <si>
-    <t>MS SQL</t>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>PandasProject</t>
+  </si>
+  <si>
+    <t>PandasArchitectId</t>
+  </si>
+  <si>
+    <t>PandasProjectName</t>
+  </si>
+  <si>
+    <t>PandasProjectId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateDate </t>
+  </si>
+  <si>
+    <t>ModifyDate</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>PandasFile</t>
+  </si>
+  <si>
+    <t>PandasFileId</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>FileSize</t>
+  </si>
+  <si>
+    <t>FileType</t>
+  </si>
+  <si>
+    <t>FileData</t>
+  </si>
+  <si>
+    <t>PandasResult</t>
+  </si>
+  <si>
+    <t>PandasResultId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCount </t>
+  </si>
+  <si>
+    <t>ResultFinish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultTable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultName </t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>CreatedAt</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpireAt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t>PandasCategoryId</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>ModifiedDate</t>
+  </si>
+  <si>
+    <t>TypeId in</t>
+  </si>
+  <si>
+    <t>MainCatId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCatId </t>
+  </si>
+  <si>
+    <t>CategoryOrder</t>
+  </si>
+  <si>
+    <t>PandasArchitect</t>
+  </si>
+  <si>
+    <t>ArchitectName</t>
+  </si>
+  <si>
+    <t>PandasColumn</t>
+  </si>
+  <si>
+    <t>PandasColumnId</t>
+  </si>
+  <si>
+    <t>ContentValue</t>
+  </si>
+  <si>
+    <t>ContentText</t>
+  </si>
+  <si>
+    <t>QuantityValue</t>
+  </si>
+  <si>
+    <t>QuantityText</t>
+  </si>
+  <si>
+    <t>MaterialValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaterialText </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnRow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitValue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitText </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WageValue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WageText </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SumValue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SumText </t>
   </si>
 </sst>
 </file>
@@ -538,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,12 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,16 +740,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,12 +800,21 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -855,15 +890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>306459</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -878,8 +913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="919372" y="3710609"/>
-          <a:ext cx="2907193" cy="3884543"/>
+          <a:off x="2257425" y="3709367"/>
+          <a:ext cx="3340376" cy="2167558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -908,15 +943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>289891</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90281</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -931,8 +966,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2966416" y="1628776"/>
-          <a:ext cx="4682159" cy="6357730"/>
+          <a:off x="4381500" y="1628776"/>
+          <a:ext cx="4667250" cy="4419599"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -960,16 +995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -984,8 +1019,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11391900" y="3533775"/>
-          <a:ext cx="2943225" cy="2371725"/>
+          <a:off x="10372725" y="3514725"/>
+          <a:ext cx="8677275" cy="2390776"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1311,31 +1346,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
-  <dimension ref="A1:AE78"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" style="1" customWidth="1"/>
@@ -1344,7 +1380,7 @@
     <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="13.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
     <col min="28" max="28" width="12.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="9.140625" style="1"/>
     <col min="30" max="30" width="14.28515625" style="1" customWidth="1"/>
@@ -1353,146 +1389,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="41" t="s">
-        <v>139</v>
+      <c r="A3" s="12"/>
+      <c r="B3" s="39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
-        <v>136</v>
+      <c r="B4" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>135</v>
+      <c r="B5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>116</v>
+      <c r="I5" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="B6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="T7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="7"/>
-      <c r="T7" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
+      <c r="B9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1500,46 +1539,46 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="7"/>
+      <c r="B10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="7"/>
+      <c r="B11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="9"/>
+      <c r="B12" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1547,880 +1586,844 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="L18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="46"/>
+      <c r="I19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="46"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="46"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="46"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="47"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E29" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="5"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="5"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="5"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="5"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="7"/>
+      <c r="I35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="18"/>
+      <c r="H38" s="21"/>
+      <c r="J38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z39" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="5"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="7"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="7"/>
+    </row>
+    <row r="45" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="46" t="s">
+      <c r="G47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="7"/>
-      <c r="N19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="7"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="7"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="9"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N30" s="18"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="7"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N31" s="18"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N32" s="18"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="N33" s="18"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N34" s="19"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="9"/>
-    </row>
-    <row r="35" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="N39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O39" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD39" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE39" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="P40" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="7" t="s">
+      <c r="F48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="7"/>
-    </row>
-    <row r="44" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="19"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="9"/>
-    </row>
-    <row r="45" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="7"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="7"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="5"/>
+    </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
-      <c r="C64" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H66" s="7"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J66" s="42" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="B67" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="18"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="19"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H74" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="17"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2440,7 +2443,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2457,31 +2460,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,23 +2492,23 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,7 +2516,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2527,7 +2530,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2552,73 +2555,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
-        <v>26</v>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2634,8 +2637,8 @@
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
-        <v>30</v>
+      <c r="B4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2651,8 +2654,8 @@
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
+      <c r="B5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1CE689-A34A-4C37-AEF2-8342E60CCF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271DB74-16DC-4976-A6CE-D8DF2F096FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="9510" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="159">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -215,9 +215,6 @@
     <t>hány db lett már bekategorizálva</t>
   </si>
   <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>{"row_id":0, "main_cat_id": 1, "sub_cat_id": 2}</t>
   </si>
   <si>
@@ -507,6 +504,15 @@
   </si>
   <si>
     <t xml:space="preserve">SumText </t>
+  </si>
+  <si>
+    <t>FirstRowNumber</t>
+  </si>
+  <si>
+    <t>milyen sorszámmal kezdődik az első sor ID-je</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -810,11 +816,10 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1348,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="U34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,15 +1404,15 @@
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1417,19 +1422,19 @@
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1437,34 +1442,34 @@
         <v>49</v>
       </c>
       <c r="H6" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="L6" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="M6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="P6" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="T6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1483,7 +1488,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>12</v>
@@ -1493,12 +1498,12 @@
       </c>
       <c r="P7" s="5"/>
       <c r="T7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -1512,7 +1517,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="18"/>
@@ -1520,7 +1525,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="10"/>
@@ -1554,7 +1559,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
@@ -1568,7 +1573,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11"/>
@@ -1586,12 +1591,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1602,31 +1607,31 @@
         <v>30</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1637,14 +1642,14 @@
         <v>3</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>12</v>
@@ -1667,7 +1672,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="29"/>
       <c r="E19" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="46"/>
@@ -1829,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="5"/>
@@ -1838,7 +1843,7 @@
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="5"/>
@@ -1930,110 +1935,110 @@
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="J38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="N39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K39" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S39" s="3" t="s">
+      <c r="U39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U39" s="3" t="s">
+      <c r="W39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z39" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA39" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z39" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="41" t="s">
+      <c r="G40" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="H40" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M40" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
@@ -2046,16 +2051,16 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
       <c r="AA40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -2065,11 +2070,11 @@
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
@@ -2083,7 +2088,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
       <c r="AA41" s="5" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -2102,7 +2107,7 @@
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
@@ -2114,7 +2119,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
       <c r="AA42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2167,34 +2172,34 @@
     <row r="45" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B47" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>52</v>
@@ -2206,10 +2211,10 @@
         <v>52</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
       <c r="C49" s="27"/>
       <c r="D49" s="18"/>
@@ -2217,7 +2222,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="16"/>
       <c r="C50" s="27"/>
       <c r="D50" s="18"/>
@@ -2225,7 +2230,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="28"/>
       <c r="D51" s="19"/>
@@ -2233,42 +2238,45 @@
       <c r="F51" s="19"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="49" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
+      <c r="C55" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H55" s="51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
       <c r="C56" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>54</v>
@@ -2280,10 +2288,13 @@
         <v>56</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="16"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -2294,9 +2305,10 @@
         <v>57</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="18"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="16"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -2305,94 +2317,99 @@
       <c r="G58" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="18"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="16"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
-      <c r="H60" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="18"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="G66" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="41" t="s">
+      <c r="I66" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="H66" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I66" s="48" t="s">
+      <c r="J66" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J66" s="42" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="D67" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2443,7 +2460,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2460,31 +2477,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2492,7 +2509,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>56</v>
@@ -2504,7 +2521,7 @@
         <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
@@ -2516,7 +2533,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2530,7 +2547,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1CE689-A34A-4C37-AEF2-8342E60CCF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B47C3C-641B-4CD8-B311-24490CE1ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -299,12 +299,6 @@
     <t>nincs user_id, mert egységesek a kategóriák a Merkbaun belül, tehát minden user ugyanazokat a kategóriákat használja</t>
   </si>
   <si>
-    <t>1: fő</t>
-  </si>
-  <si>
-    <t>2: alkategória</t>
-  </si>
-  <si>
     <t>korábban: categoryName helyett van a category oszlop</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>user id</t>
-  </si>
-  <si>
     <t>foreign key</t>
   </si>
   <si>
@@ -444,18 +435,6 @@
   </si>
   <si>
     <t>ModifiedDate</t>
-  </si>
-  <si>
-    <t>TypeId in</t>
-  </si>
-  <si>
-    <t>MainCatId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubCatId </t>
-  </si>
-  <si>
-    <t>CategoryOrder</t>
   </si>
   <si>
     <t>PandasArchitect</t>
@@ -773,9 +752,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -801,10 +777,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +785,21 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -996,13 +983,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>858492</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>239367</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -1019,8 +1006,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10372725" y="3514725"/>
-          <a:ext cx="8677275" cy="2390776"/>
+          <a:off x="10573992" y="3517210"/>
+          <a:ext cx="9402832" cy="2392846"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1348,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,16 +1385,16 @@
     </row>
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
-      <c r="B3" s="39" t="s">
-        <v>97</v>
+      <c r="B3" s="36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>94</v>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1416,11 +1403,11 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>96</v>
+      <c r="B5" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -1433,42 +1420,34 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="L6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>139</v>
-      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
       <c r="T6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1481,24 +1460,18 @@
         <v>9</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="T7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="T7" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>98</v>
+      <c r="B8" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -1510,27 +1483,25 @@
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="5"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>99</v>
+      <c r="B9" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="18"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1539,46 +1510,46 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>100</v>
+      <c r="B11" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40" t="s">
-        <v>101</v>
+      <c r="B12" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="7"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1591,42 +1562,38 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>104</v>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="I17" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>109</v>
+      <c r="K17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1636,16 +1603,14 @@
       <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>100</v>
+      <c r="D18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="46" t="s">
-        <v>92</v>
-      </c>
+      <c r="G18" s="47"/>
       <c r="I18" s="16" t="s">
         <v>12</v>
       </c>
@@ -1665,12 +1630,12 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27" t="s">
-        <v>93</v>
+      <c r="D19" s="26"/>
+      <c r="E19" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="I19" s="16" t="s">
         <v>11</v>
       </c>
@@ -1684,10 +1649,10 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -1697,10 +1662,10 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="I21" s="16"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
@@ -1710,10 +1675,10 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="I22" s="16"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -1723,9 +1688,9 @@
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="19"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="47"/>
       <c r="I23" s="17"/>
       <c r="J23" s="19"/>
@@ -1757,7 +1722,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="43" t="s">
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -1784,19 +1749,19 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="39" t="s">
         <v>48</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -1811,7 +1776,7 @@
       <c r="L29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="24" t="s">
         <v>35</v>
       </c>
       <c r="N29" s="18" t="s">
@@ -1828,8 +1793,8 @@
       <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>93</v>
+      <c r="D30" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="5"/>
@@ -1837,8 +1802,8 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="27" t="s">
-        <v>93</v>
+      <c r="M30" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="5"/>
@@ -1850,7 +1815,7 @@
       <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="18"/>
@@ -1859,7 +1824,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="27"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="18"/>
       <c r="O31" s="5"/>
     </row>
@@ -1870,7 +1835,7 @@
       <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="18"/>
@@ -1879,42 +1844,42 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
-      <c r="M32" s="27"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="18"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="18"/>
       <c r="F33" s="5"/>
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
-      <c r="M33" s="27"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="18"/>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="18"/>
       <c r="F34" s="5"/>
       <c r="I34" s="17"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="28"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="19"/>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="19"/>
       <c r="F35" s="7"/>
       <c r="I35" s="1" t="s">
@@ -1923,105 +1888,105 @@
     </row>
     <row r="36" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="J38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U39" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39" t="s">
+      <c r="V39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J39" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="K39" s="26" t="s">
+      <c r="C40" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="L39" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z39" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>109</v>
-      </c>
       <c r="J40" s="16"/>
-      <c r="K40" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="M40" s="27" t="s">
+      <c r="K40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="24" t="s">
         <v>63</v>
       </c>
       <c r="N40" s="18" t="s">
@@ -2051,21 +2016,21 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
-      <c r="C41" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>93</v>
+      <c r="C41" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="5"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27" t="s">
-        <v>93</v>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18" t="s">
@@ -2088,16 +2053,16 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="16"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="5"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
@@ -2119,16 +2084,16 @@
     </row>
     <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="7"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -2146,9 +2111,9 @@
     </row>
     <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J44" s="17"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -2166,35 +2131,35 @@
     </row>
     <row r="45" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="49" t="s">
+      <c r="F47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
-      <c r="C48" s="27" t="s">
-        <v>93</v>
+      <c r="C48" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>52</v>
@@ -2205,13 +2170,13 @@
       <c r="F48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="45" t="s">
-        <v>101</v>
+      <c r="G48" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -2219,7 +2184,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="16"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -2227,7 +2192,7 @@
     </row>
     <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -2236,39 +2201,39 @@
     <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
+      <c r="H55" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
-      <c r="C56" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>93</v>
+      <c r="C56" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>54</v>
@@ -2279,14 +2244,14 @@
       <c r="G56" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="52" t="s">
-        <v>100</v>
+      <c r="H56" s="46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="18" t="s">
         <v>55</v>
       </c>
@@ -2298,8 +2263,8 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="16"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
@@ -2309,8 +2274,8 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="16"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -2320,8 +2285,8 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -2331,8 +2296,8 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -2340,8 +2305,8 @@
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -2349,50 +2314,50 @@
     </row>
     <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="39" t="s">
-        <v>122</v>
+      <c r="B65" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
-        <v>102</v>
+      <c r="B66" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="H66" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="J66" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" s="42" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B47C3C-641B-4CD8-B311-24490CE1ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8468776-BA69-45B5-955A-FA99AF84CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="9855" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,12 +1589,10 @@
       <c r="K17" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M17" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
@@ -1620,11 +1618,8 @@
       <c r="K18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1643,8 +1638,7 @@
         <v>40</v>
       </c>
       <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -1656,8 +1650,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
@@ -1669,8 +1662,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -1682,8 +1674,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
@@ -1695,8 +1686,7 @@
       <c r="I23" s="17"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8468776-BA69-45B5-955A-FA99AF84CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A51B1-83A5-4DC1-997C-90364F502685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -56,9 +56,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>földmunka</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>példa:</t>
@@ -1335,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,78 +1380,78 @@
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="39" t="s">
         <v>130</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="T6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="52"/>
@@ -1466,21 +1460,21 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="52"/>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="10"/>
@@ -1511,7 +1505,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
@@ -1539,7 +1533,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11"/>
@@ -1557,12 +1551,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1570,27 +1564,27 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="I17" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1602,24 +1596,24 @@
         <v>3</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="47"/>
       <c r="I18" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1627,15 +1621,15 @@
       <c r="C19" s="10"/>
       <c r="D19" s="26"/>
       <c r="E19" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="47"/>
       <c r="I19" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="5"/>
@@ -1690,16 +1684,16 @@
     </row>
     <row r="24" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1716,25 +1710,25 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -1742,49 +1736,45 @@
       <c r="B29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="K29" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="5"/>
@@ -1793,20 +1783,18 @@
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="5"/>
@@ -1820,13 +1808,11 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="5"/>
@@ -1873,7 +1859,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1885,110 +1871,110 @@
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="J38" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J39" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="R39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="W39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="X39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA39" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z39" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="H40" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>106</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
@@ -1996,21 +1982,21 @@
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
       <c r="AA40" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -2020,11 +2006,11 @@
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
@@ -2038,7 +2024,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
       <c r="AA41" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -2057,7 +2043,7 @@
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
@@ -2069,7 +2055,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
       <c r="AA42" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,46 +2108,46 @@
     <row r="45" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2191,51 +2177,51 @@
     <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="H55" s="45" t="s">
         <v>115</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
       <c r="C56" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="G56" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -2243,10 +2229,10 @@
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="5"/>
@@ -2258,7 +2244,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H58" s="5"/>
     </row>
@@ -2270,7 +2256,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -2281,7 +2267,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -2305,49 +2291,49 @@
     <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="G66" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="H66" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="J66" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2398,7 +2384,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2415,31 +2401,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2447,23 +2433,23 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2471,7 +2457,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2485,7 +2471,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2512,31 +2498,31 @@
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
@@ -2544,29 +2530,29 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -2576,7 +2562,7 @@
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2593,7 +2579,7 @@
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2610,7 +2596,7 @@
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8468776-BA69-45B5-955A-FA99AF84CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2812B5-CFF2-4098-8030-4CE70B5E7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="615" windowWidth="14715" windowHeight="14985" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="PostgreSQL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -83,9 +83,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>példa:</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">SumText </t>
+  </si>
+  <si>
+    <t>frontend_id</t>
   </si>
 </sst>
 </file>
@@ -1335,14 +1335,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
@@ -1386,69 +1386,69 @@
     <row r="3" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="L6" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="T6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>12</v>
@@ -1466,12 +1466,12 @@
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="10"/>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="11"/>
@@ -1557,12 +1557,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>13</v>
@@ -1581,16 +1581,16 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="I17" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1602,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="47"/>
@@ -1613,13 +1613,13 @@
         <v>12</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="26"/>
       <c r="E19" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="47"/>
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="5"/>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="24" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1716,25 +1716,25 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -1743,73 +1743,72 @@
         <v>5</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="L29" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="5"/>
       <c r="I30" s="16"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="5"/>
       <c r="I31" s="16"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
@@ -1819,17 +1818,14 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="5"/>
       <c r="I32" s="16"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -1841,9 +1837,10 @@
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="5"/>
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
@@ -1855,9 +1852,10 @@
     <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="5"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="5"/>
       <c r="I34" s="17"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -1869,11 +1867,12 @@
     <row r="35" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1885,110 +1884,110 @@
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="J38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M39" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="N39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S39" s="3" t="s">
+      <c r="U39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U39" s="3" t="s">
+      <c r="W39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA39" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z39" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="H40" s="40" t="s">
         <v>105</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>106</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
@@ -1996,21 +1995,21 @@
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
       <c r="AA40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -2020,11 +2019,11 @@
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
@@ -2038,7 +2037,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
       <c r="AA41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -2057,7 +2056,7 @@
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
@@ -2069,7 +2068,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
       <c r="AA42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,46 +2121,46 @@
     <row r="45" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="F48" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2191,51 +2190,51 @@
     <row r="52" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="45" t="s">
         <v>116</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
       <c r="C56" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -2243,10 +2242,10 @@
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="5"/>
@@ -2258,7 +2257,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H58" s="5"/>
     </row>
@@ -2270,7 +2269,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -2281,7 +2280,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -2305,49 +2304,49 @@
     <row r="63" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="G66" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="38" t="s">
+      <c r="I66" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H66" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="42" t="s">
+      <c r="J66" s="39" t="s">
         <v>124</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="D67" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2398,7 +2397,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2415,31 +2414,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2447,23 +2446,23 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2471,7 +2470,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2485,7 +2484,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2512,31 +2511,31 @@
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
@@ -2544,7 +2543,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -2576,7 +2575,7 @@
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2593,7 +2592,7 @@
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2610,7 +2609,7 @@
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2812B5-CFF2-4098-8030-4CE70B5E7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7637F-0D07-4C41-B367-85F39AFCB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -486,6 +486,21 @@
   </si>
   <si>
     <t>frontend_id</t>
+  </si>
+  <si>
+    <t>Projects BACKEND</t>
+  </si>
+  <si>
+    <t>TrainedProjectId</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Trained</t>
   </si>
 </sst>
 </file>
@@ -719,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -802,6 +817,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1333,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +2394,35 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DB séma train_excel.xlsx
+++ b/DB séma train_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7637F-0D07-4C41-B367-85F39AFCB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CE2E8-AC15-4D9E-9310-9759F93EFB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0692BD6E-48F9-45FE-A29D-EBA3E21B7AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
   <si>
     <t>DB séma train_excel</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Trained</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964B59E-6EC2-4CDD-BD01-A4EE83B4F2B7}">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1822,9 @@
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="E31" s="24" t="s">
         <v>12</v>
       </c>
